--- a/modeling/results/results_attr_text_tf-idf.xlsx
+++ b/modeling/results/results_attr_text_tf-idf.xlsx
@@ -49,17 +49,21 @@
     <t>baseline</t>
   </si>
   <si>
-    <t>MLPClassifier(early_stopping=True, learning_rate_init=0.01, max_iter=512,
-              random_state=42)</t>
+    <t>MLPClassifier(batch_size=128, early_stopping=True,
+              hidden_layer_sizes=(64, 64, 64, 64), learning_rate_init=0.01,
+              max_iter=512, random_state=42, solver='sgd')</t>
   </si>
   <si>
     <t>GaussianNB(var_smoothing=1e-06)</t>
   </si>
   <si>
-    <t>RandomForestClassifier(max_features='sqrt', n_jobs=8, random_state=42)</t>
-  </si>
-  <si>
-    <t>SVC(cache_size=64, max_iter=1024, random_state=42)</t>
+    <t>RandomForestClassifier(criterion='entropy', max_depth=64, max_features='log2',
+                       max_leaf_nodes=128, n_estimators=512, n_jobs=8,
+                       random_state=42)</t>
+  </si>
+  <si>
+    <t>SVC(C=1, cache_size=64, coef0=0, decision_function_shape='ovo', degree=1,
+    gamma=0.01, max_iter=1024, random_state=42)</t>
   </si>
   <si>
     <t>Majority</t>
@@ -454,13 +458,13 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>0.7974025974025974</v>
+        <v>0.7763496143958869</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.7030730897009967</v>
+        <v>0.6937756182306795</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -474,13 +478,13 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>0.7922077922077922</v>
+        <v>0.7994858611825193</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.654615591639006</v>
+        <v>0.6603000447828035</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -494,13 +498,13 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>0.7974025974025974</v>
+        <v>0.8174807197943444</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.7055882352941176</v>
+        <v>0.7082818424749411</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -514,13 +518,13 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>0.7974025974025974</v>
+        <v>0.8174807197943444</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.7004907045400144</v>
+        <v>0.7339133115600645</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -534,13 +538,13 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>0.7558441558441559</v>
+        <v>0.7480719794344473</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4304733727810651</v>
+        <v>0.4279411764705882</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/modeling/results/results_attr_text_tf-idf.xlsx
+++ b/modeling/results/results_attr_text_tf-idf.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Model</t>
   </si>
   <si>
-    <t>Model details</t>
+    <t>Model Details</t>
   </si>
   <si>
     <t>Mean Acc</t>
@@ -34,6 +34,9 @@
     <t>Std F1</t>
   </si>
   <si>
+    <t>Conf Matrix</t>
+  </si>
+  <si>
     <t>MLP</t>
   </si>
   <si>
@@ -49,24 +52,40 @@
     <t>baseline</t>
   </si>
   <si>
-    <t>MLPClassifier(batch_size=128, early_stopping=True,
-              hidden_layer_sizes=(64, 64, 64, 64), learning_rate_init=0.01,
-              max_iter=512, random_state=42, solver='sgd')</t>
+    <t>MLPClassifier(early_stopping=True, learning_rate_init=0.01, max_iter=512,
+              random_state=42)</t>
   </si>
   <si>
     <t>GaussianNB(var_smoothing=1e-06)</t>
   </si>
   <si>
-    <t>RandomForestClassifier(criterion='entropy', max_depth=64, max_features='log2',
-                       max_leaf_nodes=128, n_estimators=512, n_jobs=8,
-                       random_state=42)</t>
-  </si>
-  <si>
-    <t>SVC(C=1, cache_size=64, coef0=0, decision_function_shape='ovo', degree=1,
-    gamma=0.01, max_iter=1024, random_state=42)</t>
+    <t>RandomForestClassifier(max_features='sqrt', n_jobs=8, random_state=42)</t>
+  </si>
+  <si>
+    <t>SVC(C=8, max_iter=1024, random_state=42)</t>
   </si>
   <si>
     <t>Majority</t>
+  </si>
+  <si>
+    <t>[array([[268,  28],
+       [ 50,  46]])]</t>
+  </si>
+  <si>
+    <t>[array([[285,  11],
+       [ 67,  29]])]</t>
+  </si>
+  <si>
+    <t>[array([[270,  26],
+       [ 55,  41]])]</t>
+  </si>
+  <si>
+    <t>[array([[271,  25],
+       [ 56,  40]])]</t>
+  </si>
+  <si>
+    <t>[array([[296,   0],
+       [ 96,   0]])]</t>
   </si>
 </sst>
 </file>
@@ -424,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,105 +468,123 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>0.8010204081632653</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.7070703199846713</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>0.8010204081632653</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0.6530501089324618</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>0.7933673469387755</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.6863163510269406</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>0.7933673469387755</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.6834391792867611</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
-        <v>0.7763496143958869</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0.6937756182306795</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>0.7994858611825193</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0.6603000447828035</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>0.8174807197943444</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0.7082818424749411</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>0.8174807197943444</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0.7339133115600645</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>0.7480719794344473</v>
+        <v>0.7551020408163265</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4279411764705882</v>
+        <v>0.4302325581395349</v>
       </c>
       <c r="F6">
         <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/modeling/results/results_attr_text_tf-idf.xlsx
+++ b/modeling/results/results_attr_text_tf-idf.xlsx
@@ -52,40 +52,39 @@
     <t>baseline</t>
   </si>
   <si>
-    <t>MLPClassifier(early_stopping=True, learning_rate_init=0.01, max_iter=512,
-              random_state=42)</t>
-  </si>
-  <si>
-    <t>GaussianNB(var_smoothing=1e-06)</t>
-  </si>
-  <si>
-    <t>RandomForestClassifier(max_features='sqrt', n_jobs=8, random_state=42)</t>
-  </si>
-  <si>
-    <t>SVC(C=8, max_iter=1024, random_state=42)</t>
+    <t>{'learning_rate_init': 0.01}</t>
+  </si>
+  <si>
+    <t>{'var_smoothing': 1e-06}</t>
+  </si>
+  <si>
+    <t>{'max_features': 'log2'}</t>
+  </si>
+  <si>
+    <t>{'decision_function_shape': 'ovo'}</t>
   </si>
   <si>
     <t>Majority</t>
   </si>
   <si>
-    <t>[array([[268,  28],
-       [ 50,  46]])]</t>
-  </si>
-  <si>
-    <t>[array([[285,  11],
-       [ 67,  29]])]</t>
-  </si>
-  <si>
-    <t>[array([[270,  26],
-       [ 55,  41]])]</t>
-  </si>
-  <si>
-    <t>[array([[271,  25],
-       [ 56,  40]])]</t>
-  </si>
-  <si>
-    <t>[array([[296,   0],
-       [ 96,   0]])]</t>
+    <t>[array([[275,  19],
+       [ 57,  37]])]</t>
+  </si>
+  <si>
+    <t>[array([[164, 130],
+       [ 17,  77]])]</t>
+  </si>
+  <si>
+    <t>[array([[283,  11],
+       [ 55,  39]])]</t>
+  </si>
+  <si>
+    <t>[array([[283,  11],
+       [ 67,  27]])]</t>
+  </si>
+  <si>
+    <t>[array([[294,   0],
+       [ 94,   0]])]</t>
   </si>
 </sst>
 </file>
@@ -480,13 +479,13 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>0.8010204081632653</v>
+        <v>0.8041237113402062</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.7070703199846713</v>
+        <v>0.6859637912673056</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -503,13 +502,13 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>0.8010204081632653</v>
+        <v>0.6211340206185567</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.6530501089324618</v>
+        <v>0.6010771113831088</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -526,13 +525,13 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>0.7933673469387755</v>
+        <v>0.8298969072164949</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.6863163510269406</v>
+        <v>0.7186181434599156</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -549,13 +548,13 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>0.7933673469387755</v>
+        <v>0.7989690721649485</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.6834391792867611</v>
+        <v>0.6439864483342744</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -572,13 +571,13 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>0.7551020408163265</v>
+        <v>0.7577319587628866</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4302325581395349</v>
+        <v>0.4310850439882698</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/modeling/results/results_attr_text_tf-idf.xlsx
+++ b/modeling/results/results_attr_text_tf-idf.xlsx
@@ -52,39 +52,39 @@
     <t>baseline</t>
   </si>
   <si>
-    <t>{'learning_rate_init': 0.01}</t>
+    <t>{'activation': 'relu', 'batch_size': 64, 'hidden_layer_sizes': (64, 64), 'learning_rate': 'constant', 'learning_rate_init': 0.01, 'solver': 'adam'}</t>
   </si>
   <si>
     <t>{'var_smoothing': 1e-06}</t>
   </si>
   <si>
-    <t>{'max_features': 'log2'}</t>
-  </si>
-  <si>
-    <t>{'decision_function_shape': 'ovo'}</t>
+    <t>{'criterion': 'entropy', 'max_depth': 32, 'max_features': 'log2', 'max_leaf_nodes': 512, 'n_estimators': 64}</t>
+  </si>
+  <si>
+    <t>{'C': 16, 'cache_size': 32, 'coef0': 0, 'decision_function_shape': 'ovo', 'degree': 1, 'gamma': 0.01, 'kernel': 'rbf'}</t>
   </si>
   <si>
     <t>Majority</t>
   </si>
   <si>
-    <t>[array([[275,  19],
-       [ 57,  37]])]</t>
-  </si>
-  <si>
-    <t>[array([[164, 130],
-       [ 17,  77]])]</t>
-  </si>
-  <si>
-    <t>[array([[283,  11],
-       [ 55,  39]])]</t>
-  </si>
-  <si>
-    <t>[array([[283,  11],
-       [ 67,  27]])]</t>
-  </si>
-  <si>
-    <t>[array([[294,   0],
-       [ 94,   0]])]</t>
+    <t>[array([[267,  25],
+       [ 55,  42]])]</t>
+  </si>
+  <si>
+    <t>[array([[280,  12],
+       [ 68,  29]])]</t>
+  </si>
+  <si>
+    <t>[array([[276,  16],
+       [ 52,  45]])]</t>
+  </si>
+  <si>
+    <t>[array([[265,  27],
+       [ 53,  44]])]</t>
+  </si>
+  <si>
+    <t>[array([[292,   0],
+       [ 97,   0]])]</t>
   </si>
 </sst>
 </file>
@@ -479,13 +479,13 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>0.8041237113402062</v>
+        <v>0.794344473007712</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.6859637912673056</v>
+        <v>0.6909509811710495</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -502,13 +502,13 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>0.6211340206185567</v>
+        <v>0.794344473007712</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.6010771113831088</v>
+        <v>0.6476449275362319</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -525,13 +525,13 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>0.8298969072164949</v>
+        <v>0.8251928020565553</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.7186181434599156</v>
+        <v>0.7299714169048591</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>0.7989690721649485</v>
+        <v>0.794344473007712</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.6439864483342744</v>
+        <v>0.6963309914129586</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -571,13 +571,13 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>0.7577319587628866</v>
+        <v>0.7506426735218509</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4310850439882698</v>
+        <v>0.4287812041116006</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/modeling/results/results_attr_text_tf-idf.xlsx
+++ b/modeling/results/results_attr_text_tf-idf.xlsx
@@ -52,39 +52,39 @@
     <t>baseline</t>
   </si>
   <si>
-    <t>{'activation': 'relu', 'batch_size': 64, 'hidden_layer_sizes': (64, 64), 'learning_rate': 'constant', 'learning_rate_init': 0.01, 'solver': 'adam'}</t>
+    <t>{'activation': 'relu', 'batch_size': 32, 'hidden_layer_sizes': (32, 32, 32), 'learning_rate': 'adaptive', 'learning_rate_init': 0.01, 'solver': 'sgd'}</t>
   </si>
   <si>
     <t>{'var_smoothing': 1e-06}</t>
   </si>
   <si>
-    <t>{'criterion': 'entropy', 'max_depth': 32, 'max_features': 'log2', 'max_leaf_nodes': 512, 'n_estimators': 64}</t>
-  </si>
-  <si>
-    <t>{'C': 16, 'cache_size': 32, 'coef0': 0, 'decision_function_shape': 'ovo', 'degree': 1, 'gamma': 0.01, 'kernel': 'rbf'}</t>
+    <t>{'criterion': 'gini', 'max_depth': 64, 'max_features': 'sqrt', 'max_leaf_nodes': 512, 'n_estimators': 512}</t>
+  </si>
+  <si>
+    <t>{'C': 1, 'cache_size': 32, 'coef0': 0, 'decision_function_shape': 'ovo', 'degree': 1, 'gamma': 0.01, 'kernel': 'rbf'}</t>
   </si>
   <si>
     <t>Majority</t>
   </si>
   <si>
-    <t>[array([[267,  25],
-       [ 55,  42]])]</t>
-  </si>
-  <si>
-    <t>[array([[280,  12],
-       [ 68,  29]])]</t>
-  </si>
-  <si>
     <t>[array([[276,  16],
-       [ 52,  45]])]</t>
-  </si>
-  <si>
-    <t>[array([[265,  27],
-       [ 53,  44]])]</t>
+       [ 62,  37]])]</t>
+  </si>
+  <si>
+    <t>[array([[276,  16],
+       [ 68,  31]])]</t>
+  </si>
+  <si>
+    <t>[array([[266,  26],
+       [ 56,  43]])]</t>
+  </si>
+  <si>
+    <t>[array([[272,  20],
+       [ 54,  45]])]</t>
   </si>
   <si>
     <t>[array([[292,   0],
-       [ 97,   0]])]</t>
+       [ 99,   0]])]</t>
   </si>
 </sst>
 </file>
@@ -479,13 +479,13 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>0.794344473007712</v>
+        <v>0.8005115089514067</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.6909509811710495</v>
+        <v>0.6815162907268171</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -502,13 +502,13 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>0.794344473007712</v>
+        <v>0.7851662404092071</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.6476449275362319</v>
+        <v>0.646291031274231</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -525,13 +525,13 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>0.8251928020565553</v>
+        <v>0.7902813299232737</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.7299714169048591</v>
+        <v>0.6891771366527066</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>0.794344473007712</v>
+        <v>0.8107416879795396</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.6963309914129586</v>
+        <v>0.7145196937406267</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -571,13 +571,13 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>0.7506426735218509</v>
+        <v>0.7468030690537084</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4287812041116006</v>
+        <v>0.4275256222547584</v>
       </c>
       <c r="F6">
         <v>0</v>
